--- a/lantai_4_non_aerosol.xlsx
+++ b/lantai_4_non_aerosol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PROJECTS\Python Projects\war_kedokteran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E2A407-4CA4-4168-BA20-0EB1297F2B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBFAD9A-BF05-4F9B-B814-1AF2BC42CD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3615" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9495" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>nama</t>
   </si>
@@ -41,9 +41,6 @@
     <t>tindakan</t>
   </si>
   <si>
-    <t>Fitrio</t>
-  </si>
-  <si>
     <t>Phantom</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>ISI_TINDAKAN_DISINI</t>
+  </si>
+  <si>
+    <t>Fake</t>
   </si>
 </sst>
 </file>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,22 +960,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1022,35 +1062,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
